--- a/Output/Falkson_1998 Falkson 1998 OS DTIC_IFN parameters.xlsx
+++ b/Output/Falkson_1998 Falkson 1998 OS DTIC_IFN parameters.xlsx
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-3.01920941114309</v>
+        <v>-2.95410791709162</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1957543823296</v>
+        <v>0.173133254677496</v>
       </c>
       <c r="D2" t="n">
         <v>477.479905486715</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0688710722139505</v>
+        <v>0.0556593266224006</v>
       </c>
       <c r="C3" t="n">
-        <v>0.106918285891009</v>
+        <v>0.0926145582214106</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>2.46094374220508</v>
+        <v>2.40219799434963</v>
       </c>
       <c r="C2" t="n">
-        <v>0.264036571292589</v>
+        <v>0.234519749464493</v>
       </c>
       <c r="D2" t="n">
         <v>464.072729259462</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.01546611467525</v>
+        <v>-1.00901173307717</v>
       </c>
       <c r="C3" t="n">
-        <v>0.109562714690895</v>
+        <v>0.102287905033608</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.40113898532518</v>
+        <v>-2.35918673923445</v>
       </c>
       <c r="C2" t="n">
-        <v>0.122189329723341</v>
+        <v>0.116437894083279</v>
       </c>
       <c r="D2" t="n">
         <v>463.107286955087</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.77239131003522</v>
+        <v>1.75657302549737</v>
       </c>
       <c r="C3" t="n">
-        <v>0.201440275309019</v>
+        <v>0.210949146448444</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.64863060347219</v>
+        <v>-2.60453622180521</v>
       </c>
       <c r="C2" t="n">
-        <v>0.140374272993617</v>
+        <v>0.140775675694235</v>
       </c>
       <c r="D2" t="n">
         <v>474.450178518181</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0168393407736236</v>
+        <v>-0.0179874448132232</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0119133252065979</v>
+        <v>0.00981579720341566</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0383197782012431</v>
+        <v>0.0299751238752225</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0153403431417579</v>
+        <v>-0.0112536040524681</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0153403431417579</v>
+        <v>-0.0112536040524681</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0114315198578715</v>
+        <v>0.00857745639454706</v>
       </c>
     </row>
   </sheetData>
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0697153109799464</v>
+        <v>0.0549995128888884</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0254842257230339</v>
+        <v>-0.0211596960556413</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0254842257230339</v>
+        <v>-0.0211596960556413</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0120039884504384</v>
+        <v>0.0104628155161643</v>
       </c>
     </row>
   </sheetData>
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0149302322982393</v>
+        <v>0.013557783178549</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00513875423267739</v>
+        <v>0.00663085164219347</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.00513875423267739</v>
+        <v>0.00663085164219347</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0405781845165733</v>
+        <v>0.0444995423873269</v>
       </c>
     </row>
   </sheetData>
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0197049365184865</v>
+        <v>0.0198177908671686</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.000937601013814208</v>
+        <v>-0.000793480139508984</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.000937601013814208</v>
+        <v>-0.000793480139508984</v>
       </c>
       <c r="B3" t="n">
-        <v>0.000141927317478162</v>
+        <v>0.0000963498747385826</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Falkson_1998 Falkson 1998 OS DTIC_IFN parameters.xlsx
+++ b/Output/Falkson_1998 Falkson 1998 OS DTIC_IFN parameters.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -375,12 +375,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.95410791709162</v>
+        <v>-3.01920941114309</v>
       </c>
       <c r="C2" t="n">
-        <v>0.173133254677496</v>
+        <v>0.1957543823296</v>
       </c>
       <c r="D2" t="n">
         <v>477.479905486715</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0556593266224006</v>
+        <v>0.0688710722139505</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0926145582214106</v>
+        <v>0.106918285891009</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -436,12 +436,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1"/>
@@ -453,12 +453,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>2.40219799434963</v>
+        <v>2.46094374220508</v>
       </c>
       <c r="C2" t="n">
-        <v>0.234519749464493</v>
+        <v>0.264036571292589</v>
       </c>
       <c r="D2" t="n">
         <v>464.072729259462</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.00901173307717</v>
+        <v>-1.01546611467525</v>
       </c>
       <c r="C3" t="n">
-        <v>0.102287905033608</v>
+        <v>0.109562714690895</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -514,12 +514,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.35918673923445</v>
+        <v>-2.40113898532518</v>
       </c>
       <c r="C2" t="n">
-        <v>0.116437894083279</v>
+        <v>0.122189329723341</v>
       </c>
       <c r="D2" t="n">
         <v>463.107286955087</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.75657302549737</v>
+        <v>0.565964498875003</v>
       </c>
       <c r="C3" t="n">
-        <v>0.210949146448444</v>
+        <v>0.112695489584321</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -575,12 +575,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.60453622180521</v>
+        <v>-2.64863060347219</v>
       </c>
       <c r="C2" t="n">
-        <v>0.140775675694235</v>
+        <v>0.140374272993617</v>
       </c>
       <c r="D2" t="n">
         <v>474.450178518181</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0179874448132232</v>
+        <v>-0.0168393407736236</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00981579720341566</v>
+        <v>0.0119133252065979</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -636,12 +636,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -684,12 +684,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0299751238752225</v>
+        <v>0.0383197782012431</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0112536040524681</v>
+        <v>-0.0153403431417579</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0112536040524681</v>
+        <v>-0.0153403431417579</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00857745639454706</v>
+        <v>0.0114315198578715</v>
       </c>
     </row>
   </sheetData>
@@ -722,12 +722,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0549995128888884</v>
+        <v>0.0697153109799464</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0211596960556413</v>
+        <v>-0.0254842257230339</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0211596960556413</v>
+        <v>-0.0254842257230339</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0104628155161643</v>
+        <v>0.0120039884504384</v>
       </c>
     </row>
   </sheetData>
@@ -760,12 +760,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.013557783178549</v>
+        <v>0.0149302322982393</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00663085164219347</v>
+        <v>0.00300575235300295</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.00663085164219347</v>
+        <v>0.00300575235300295</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0444995423873269</v>
+        <v>0.0127002733726498</v>
       </c>
     </row>
   </sheetData>
@@ -798,12 +798,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0198177908671686</v>
+        <v>0.0197049365184865</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.000793480139508984</v>
+        <v>-0.000937601013814208</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.000793480139508984</v>
+        <v>-0.000937601013814208</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0000963498747385826</v>
+        <v>0.000141927317478162</v>
       </c>
     </row>
   </sheetData>
